--- a/hak5_ui_overview.xlsx
+++ b/hak5_ui_overview.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$61</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
   <si>
     <t>item_id</t>
   </si>
@@ -532,6 +535,42 @@
   </si>
   <si>
     <t>Modules - Evil Portal</t>
+  </si>
+  <si>
+    <t>item_h2_h3_custom_img_name2_light-mode</t>
+  </si>
+  <si>
+    <t>1_introduction_to_the_ui_2_logging_in2_light-mode.png</t>
+  </si>
+  <si>
+    <t>4_pineap_2_pineap_settings2_light-mode.png</t>
+  </si>
+  <si>
+    <t>5_recon_1_scanning2_light-mode.png</t>
+  </si>
+  <si>
+    <t>item_h2_h3_custom_img_name_dark-mode</t>
+  </si>
+  <si>
+    <t>7_modules-evilportal_0_init_light-mode.png</t>
+  </si>
+  <si>
+    <t>7_modules-evilportal_0_init_dark-mode.png</t>
+  </si>
+  <si>
+    <t>5_recon_5_handshakes_dark-mode.png</t>
+  </si>
+  <si>
+    <t>7_modules_2_modules_available_for_installation_dark-mode.png</t>
+  </si>
+  <si>
+    <t>3_campaigns_1_manage_dark-mode.png</t>
+  </si>
+  <si>
+    <t>4_pineap_3_open_ssid_dark-mode.png</t>
+  </si>
+  <si>
+    <t>5_recon_1_scanning_dark-mode.png</t>
   </si>
 </sst>
 </file>
@@ -914,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A61"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,11 +971,13 @@
     <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="89.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45" customWidth="1"/>
+    <col min="12" max="12" width="89.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,16 +1008,22 @@
       <c r="J1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -984,457 +1031,515 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>139</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="F14">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1442,160 +1547,160 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29">
         <v>7</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I29" t="s">
         <v>51</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1603,16 +1708,22 @@
       <c r="C30" t="s">
         <v>52</v>
       </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
       <c r="F30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1621,21 +1732,15 @@
         <v>52</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1644,21 +1749,21 @@
         <v>52</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1667,21 +1772,21 @@
         <v>52</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1690,119 +1795,107 @@
         <v>52</v>
       </c>
       <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38">
         <v>10</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>77</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I38" t="s">
         <v>78</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1810,22 +1903,22 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
       <c r="F39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1834,24 +1927,21 @@
         <v>80</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1859,19 +1949,22 @@
       <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1880,21 +1973,21 @@
         <v>80</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1902,22 +1995,19 @@
       <c r="C43" t="s">
         <v>80</v>
       </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1926,62 +2016,61 @@
         <v>80</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" t="s">
-        <v>160</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1989,25 +2078,22 @@
       <c r="C47" t="s">
         <v>102</v>
       </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" t="s">
-        <v>161</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2016,43 +2102,45 @@
         <v>102</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>105</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>162</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>170</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="L49" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2072,7 +2160,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2095,7 +2183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2118,7 +2206,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2141,7 +2229,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2164,7 +2252,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2187,7 +2275,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2210,7 +2298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2230,7 +2318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2247,7 +2335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2270,7 +2358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2293,7 +2381,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2317,21 +2405,26 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N61">
+    <sortState ref="A2:N61">
+      <sortCondition ref="L1:L61"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K24" r:id="rId4"/>
-    <hyperlink ref="L17" r:id="rId5"/>
-    <hyperlink ref="K36" r:id="rId6"/>
-    <hyperlink ref="L40" r:id="rId7"/>
-    <hyperlink ref="J40" r:id="rId8"/>
-    <hyperlink ref="L47" r:id="rId9"/>
-    <hyperlink ref="J47" r:id="rId10"/>
-    <hyperlink ref="J48" r:id="rId11"/>
-    <hyperlink ref="J46" r:id="rId12"/>
-    <hyperlink ref="L49" r:id="rId13"/>
-    <hyperlink ref="L27" r:id="rId14"/>
+    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J15" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="N7" r:id="rId5"/>
+    <hyperlink ref="L4" r:id="rId6"/>
+    <hyperlink ref="N5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="N6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="J49" r:id="rId11"/>
+    <hyperlink ref="J48" r:id="rId12"/>
+    <hyperlink ref="N9" r:id="rId13"/>
+    <hyperlink ref="N8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
